--- a/testsets/Set B Saturation/Metingen Saturation/Saturation Value.xlsx
+++ b/testsets/Set B Saturation/Metingen Saturation/Saturation Value.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ties1\OneDrive\Bureaublad\STUDIE\HBO-ICT jaar 2019-2020\Vision\Github repo\HU-Vision-Ties-Mick\testsets\Set B Saturation\Metingen Saturation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mickb\source\repos\Tiesbrouwer10\HU-Vision-Ties-Mick\testsets\Set B Saturation\Metingen Saturation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC86D62-6601-4DE3-9631-0EAB270FB4AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8937DBF-051C-4F3B-9577-41BF17DA84E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-8835" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,18 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -10236,10 +10244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BA27" sqref="BA27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105:N105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13513,6 +13521,28 @@
         <v>12</v>
       </c>
     </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <f>COUNTIF(B4:B103,12)</f>
+        <v>5</v>
+      </c>
+      <c r="E105">
+        <f>COUNTIF(E4:E103,12)</f>
+        <v>31</v>
+      </c>
+      <c r="H105">
+        <f>COUNTIF(H4:H103,12)</f>
+        <v>100</v>
+      </c>
+      <c r="K105">
+        <f>COUNTIF(K4:K103,12)</f>
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <f>COUNTIF(N4:N103,12)</f>
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testsets/Set B Saturation/Metingen Saturation/Saturation Value.xlsx
+++ b/testsets/Set B Saturation/Metingen Saturation/Saturation Value.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mickb\source\repos\Tiesbrouwer10\HU-Vision-Ties-Mick\testsets\Set B Saturation\Metingen Saturation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ties1\OneDrive\Bureaublad\STUDIE\HBO-ICT jaar 2019-2020\Vision\Github repo\HU-Vision-Ties-Mick\testsets\Set B Saturation\Metingen Saturation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8937DBF-051C-4F3B-9577-41BF17DA84E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956637D0-3926-4857-AAFA-C8AC184435D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-8835" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="115">
   <si>
     <t>Saturation METINGEN</t>
   </si>
@@ -361,12 +383,33 @@
   <si>
     <t>picture5</t>
   </si>
+  <si>
+    <t>Picture1</t>
+  </si>
+  <si>
+    <t>Picture 2</t>
+  </si>
+  <si>
+    <t>Picture3</t>
+  </si>
+  <si>
+    <t>Picture4</t>
+  </si>
+  <si>
+    <t>Picture5</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +419,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -401,8 +452,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8114,16 +8166,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>315278</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>490365</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>118022</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>52388</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>74405</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>229380</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>160995</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10244,15 +10296,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:AH105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105:N105"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AD23" sqref="AD23:AH34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10269,7 +10321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -10301,7 +10353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -10333,7 +10385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -10365,7 +10417,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -10397,7 +10449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -10429,7 +10481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -10460,8 +10512,25 @@
       <c r="N7">
         <v>12</v>
       </c>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -10492,8 +10561,31 @@
       <c r="N8">
         <v>12</v>
       </c>
+      <c r="AC8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD8" cm="1">
+        <f t="array" ref="AD8:AD19">COUNTIF(B4:B53,AC8:AC19)</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" cm="1">
+        <f t="array" ref="AE8:AE19">COUNTIF(E4:E53,AC8:AC19)</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" cm="1">
+        <f t="array" ref="AF8:AF19">COUNTIF(H4:H53,AC8:AC19)</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" cm="1">
+        <f t="array" ref="AG8:AG19">COUNTIF(K4:K53,AC8:AC19)</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" cm="1">
+        <f t="array" ref="AH8:AH19">COUNTIF(N4:N53,AC8:AC19)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -10524,8 +10616,26 @@
       <c r="N9">
         <v>4</v>
       </c>
+      <c r="AC9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD9">
+        <v>50</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -10556,8 +10666,26 @@
       <c r="N10">
         <v>12</v>
       </c>
+      <c r="AC10" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -10588,8 +10716,26 @@
       <c r="N11">
         <v>4</v>
       </c>
+      <c r="AC11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>31</v>
+      </c>
+      <c r="AH11">
+        <v>43</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -10620,8 +10766,29 @@
       <c r="N12">
         <v>12</v>
       </c>
+      <c r="AB12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>19</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -10652,8 +10819,26 @@
       <c r="N13">
         <v>4</v>
       </c>
+      <c r="AC13" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -10684,8 +10869,26 @@
       <c r="N14">
         <v>4</v>
       </c>
+      <c r="AC14" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -10716,8 +10919,26 @@
       <c r="N15">
         <v>4</v>
       </c>
+      <c r="AC15" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -10748,8 +10969,26 @@
       <c r="N16">
         <v>4</v>
       </c>
+      <c r="AC16" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>50</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -10780,8 +11019,26 @@
       <c r="N17">
         <v>4</v>
       </c>
+      <c r="AC17" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -10812,8 +11069,26 @@
       <c r="N18">
         <v>4</v>
       </c>
+      <c r="AC18" s="1">
+        <v>11</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -10844,8 +11119,26 @@
       <c r="N19">
         <v>4</v>
       </c>
+      <c r="AC19" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>50</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -10876,8 +11169,9 @@
       <c r="N20">
         <v>4</v>
       </c>
+      <c r="AC20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -10908,8 +11202,9 @@
       <c r="N21">
         <v>4</v>
       </c>
+      <c r="AC21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -10940,8 +11235,24 @@
       <c r="N22">
         <v>4</v>
       </c>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH22" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -10972,8 +11283,31 @@
       <c r="N23">
         <v>4</v>
       </c>
+      <c r="AC23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD23" cm="1">
+        <f t="array" ref="AD23:AD34">COUNTIF(B53:B103,AC23:AC34)</f>
+        <v>0</v>
+      </c>
+      <c r="AE23" cm="1">
+        <f t="array" ref="AE23:AE34">COUNTIF(E53:E103,AC23:AC34)</f>
+        <v>0</v>
+      </c>
+      <c r="AF23" cm="1">
+        <f t="array" ref="AF23:AF34">COUNTIF(H53:H103,AC23:AC34)</f>
+        <v>0</v>
+      </c>
+      <c r="AG23" cm="1">
+        <f t="array" ref="AG23:AG34">COUNTIF(K53:K103,AC23:AC34)</f>
+        <v>0</v>
+      </c>
+      <c r="AH23" cm="1">
+        <f t="array" ref="AH23:AH34">COUNTIF(N53:N103,AC23:AC34)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -11004,8 +11338,26 @@
       <c r="N24">
         <v>4</v>
       </c>
+      <c r="AC24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD24">
+        <v>31</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -11036,8 +11388,26 @@
       <c r="N25">
         <v>4</v>
       </c>
+      <c r="AC25" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -11068,8 +11438,26 @@
       <c r="N26">
         <v>4</v>
       </c>
+      <c r="AC26" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD26">
+        <v>15</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>5</v>
+      </c>
+      <c r="AH26">
+        <v>46</v>
+      </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -11100,8 +11488,29 @@
       <c r="N27">
         <v>4</v>
       </c>
+      <c r="AB27" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>45</v>
+      </c>
+      <c r="AH27">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -11132,8 +11541,26 @@
       <c r="N28">
         <v>4</v>
       </c>
+      <c r="AC28" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -11164,8 +11591,26 @@
       <c r="N29">
         <v>4</v>
       </c>
+      <c r="AC29" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -11196,8 +11641,26 @@
       <c r="N30">
         <v>4</v>
       </c>
+      <c r="AC30" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -11228,8 +11691,26 @@
       <c r="N31">
         <v>4</v>
       </c>
+      <c r="AC31" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>20</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -11260,8 +11741,26 @@
       <c r="N32">
         <v>4</v>
       </c>
+      <c r="AC32" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -11292,8 +11791,26 @@
       <c r="N33">
         <v>4</v>
       </c>
+      <c r="AC33" s="1">
+        <v>11</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -11324,8 +11841,26 @@
       <c r="N34">
         <v>4</v>
       </c>
+      <c r="AC34" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD34">
+        <v>5</v>
+      </c>
+      <c r="AE34">
+        <v>31</v>
+      </c>
+      <c r="AF34">
+        <v>51</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -11357,7 +11892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -11389,7 +11924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -11421,7 +11956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -11453,7 +11988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -11485,7 +12020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -11517,7 +12052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -11549,7 +12084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -11581,7 +12116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -11613,7 +12148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -11645,7 +12180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -11677,7 +12212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -11709,7 +12244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -11741,7 +12276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
